--- a/月末作业投资股票数据.xlsx
+++ b/月末作业投资股票数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="8085" tabRatio="418" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8820" tabRatio="418" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>T\N</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>2020.2.29</t>
+  </si>
+  <si>
+    <t>金融危机</t>
+  </si>
+  <si>
+    <t>美国熔断3次</t>
+  </si>
+  <si>
+    <t>美联储降息为0</t>
   </si>
   <si>
     <t>2020.3.31</t>
@@ -268,10 +277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -316,48 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,48 +347,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +368,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -447,9 +401,64 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -498,6 +507,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -528,25 +657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,120 +685,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -686,41 +695,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,26 +715,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,8 +737,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,145 +798,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,8 +1304,8 @@
   <sheetPr/>
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2547,54 +2556,149 @@
         <v>-0.156</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="C18">
+        <v>2626.65</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-0.1109</v>
+      </c>
+      <c r="E18">
+        <v>22327.48</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-0.1213</v>
+      </c>
+      <c r="G18">
+        <v>7774.15</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-0.0926</v>
+      </c>
+      <c r="J18">
+        <v>1146.42</v>
+      </c>
+      <c r="K18" s="2">
+        <v>-0.144</v>
+      </c>
+      <c r="L18">
+        <v>1146</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.1443</v>
+      </c>
+      <c r="N18">
+        <v>190.46</v>
+      </c>
+      <c r="O18" s="2">
+        <v>-0.0843</v>
+      </c>
+      <c r="P18">
+        <v>98.84</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>-0.1762</v>
+      </c>
+      <c r="R18">
+        <v>3637.88</v>
+      </c>
+      <c r="S18" s="2">
+        <v>-0.1621</v>
+      </c>
+      <c r="T18">
+        <v>531.02</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.205</v>
+      </c>
+      <c r="V18">
+        <v>380.2</v>
+      </c>
+      <c r="W18" s="2">
+        <v>-0.015</v>
+      </c>
+      <c r="X18">
+        <v>59.97</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>-0.0826</v>
+      </c>
+      <c r="Z18">
+        <v>165.18</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>-0.1418</v>
+      </c>
+      <c r="AB18">
+        <v>1954.23</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0.0374</v>
+      </c>
+      <c r="AD18">
+        <v>254.65</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>-0.0684</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2607,10 +2711,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AM16" sqref="AM16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2653,34 +2757,34 @@
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AE1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AH1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AK1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2690,7 +2794,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -2698,7 +2802,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -2710,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G4">
         <v>161.45</v>
@@ -2719,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J4">
         <v>1639.83</v>
@@ -2728,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M4">
         <v>183.71</v>
@@ -2737,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P4">
         <v>342</v>
@@ -2746,12 +2850,12 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -2813,7 +2917,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -2893,7 +2997,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -2973,7 +3077,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -3036,7 +3140,7 @@
         <v>0.9</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W8" s="7">
         <v>0.1745</v>
@@ -3056,7 +3160,7 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
@@ -3136,7 +3240,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -3216,7 +3320,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -3305,7 +3409,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -3394,7 +3498,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -3483,7 +3587,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -3572,7 +3676,7 @@
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -3679,7 +3783,7 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
@@ -3791,6 +3895,164 @@
       </c>
       <c r="AM16">
         <v>0.996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>1142.46</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-0.1469</v>
+      </c>
+      <c r="F18">
+        <v>1.0176</v>
+      </c>
+      <c r="G18">
+        <v>164.57</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-0.14496</v>
+      </c>
+      <c r="I18">
+        <v>1.0189</v>
+      </c>
+      <c r="J18">
+        <v>1959.51</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.0402</v>
+      </c>
+      <c r="L18">
+        <v>1.1951</v>
+      </c>
+      <c r="M18">
+        <v>191.94</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-0.0772</v>
+      </c>
+      <c r="O18">
+        <v>1.0445</v>
+      </c>
+      <c r="P18">
+        <v>380.2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>-0.015</v>
+      </c>
+      <c r="R18">
+        <v>1.1683</v>
+      </c>
+      <c r="S18">
+        <v>312.15</v>
+      </c>
+      <c r="T18" s="2">
+        <v>-0.0206</v>
+      </c>
+      <c r="U18">
+        <v>1.098</v>
+      </c>
+      <c r="V18">
+        <v>40.13</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.0421</v>
+      </c>
+      <c r="X18">
+        <v>1.3433</v>
+      </c>
+      <c r="Y18">
+        <v>1111</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0.0511</v>
+      </c>
+      <c r="AA18">
+        <v>0.9661</v>
+      </c>
+      <c r="AB18">
+        <v>254.94</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>-0.0674</v>
+      </c>
+      <c r="AD18">
+        <v>1.3423</v>
+      </c>
+      <c r="AE18">
+        <v>37.52</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>-0.2637</v>
+      </c>
+      <c r="AG18">
+        <v>0.7063</v>
+      </c>
+      <c r="AH18">
+        <v>39.46</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>-0.2894</v>
+      </c>
+      <c r="AJ18">
+        <v>0.641</v>
+      </c>
+      <c r="AK18">
+        <v>93.65</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>-0.0531</v>
+      </c>
+      <c r="AM18">
+        <v>0.943</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/月末作业投资股票数据.xlsx
+++ b/月末作业投资股票数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8820" tabRatio="418" activeTab="1"/>
+    <workbookView windowWidth="15135" windowHeight="8550" tabRatio="418" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>T\N</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>美团点评-W</t>
+  </si>
+  <si>
+    <t>云南白药000538(2020/04/04)</t>
   </si>
   <si>
     <t>以1美元为例，看相对值变化</t>
@@ -277,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -325,9 +328,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,8 +389,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,30 +450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -401,64 +459,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -507,126 +510,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -657,19 +540,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,6 +574,120 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -695,11 +698,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +748,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,58 +790,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,10 +801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,133 +813,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1304,7 +1307,7 @@
   <sheetPr/>
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
@@ -2711,10 +2714,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2722,7 +2725,7 @@
     <col min="2" max="2" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37">
+    <row r="1" spans="2:40">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2785,6 +2788,9 @@
       </c>
       <c r="AK1" t="s">
         <v>80</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2794,7 +2800,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -2802,7 +2808,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -2814,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <v>161.45</v>
@@ -2823,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4">
         <v>1639.83</v>
@@ -2832,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4">
         <v>183.71</v>
@@ -2841,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P4">
         <v>342</v>
@@ -2850,12 +2856,12 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -2917,7 +2923,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -2997,7 +3003,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -3077,7 +3083,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -3140,7 +3146,7 @@
         <v>0.9</v>
       </c>
       <c r="V8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W8" s="7">
         <v>0.1745</v>
@@ -3160,7 +3166,7 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
@@ -3240,7 +3246,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -3320,7 +3326,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -3409,7 +3415,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -3498,7 +3504,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -3587,7 +3593,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -3676,7 +3682,7 @@
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -3783,7 +3789,7 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
@@ -3897,7 +3903,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="18" spans="2:39">
+    <row r="18" spans="2:40">
       <c r="B18" t="s">
         <v>61</v>
       </c>
@@ -4008,6 +4014,9 @@
       </c>
       <c r="AM18">
         <v>0.943</v>
+      </c>
+      <c r="AN18">
+        <v>84.59</v>
       </c>
     </row>
     <row r="19" spans="2:2">

--- a/月末作业投资股票数据.xlsx
+++ b/月末作业投资股票数据.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dataScoks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A185AB22-04F9-41CF-8C27-6155AF253526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15135" windowHeight="8550" tabRatio="418" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="418" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>T\N</t>
   </si>
@@ -273,19 +279,21 @@
   </si>
   <si>
     <t>&lt;灰&gt;30.29</t>
+  </si>
+  <si>
+    <t>&lt;金融危机中&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值价格的理解：好股票不是价格决定的，不能因为买不起价格高的就买价格低的，这个逻辑不对；当然价格低的不是就不好，比如中药，云南白药（大家觉得好的，它不行也必须行。）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,151 +329,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,188 +393,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -697,253 +402,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -959,62 +422,19 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1299,25 +719,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.375"/>
-    <col min="31" max="31" width="9.375"/>
+    <col min="5" max="5" width="9.36328125"/>
+    <col min="31" max="31" width="9.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1417,7 +837,7 @@
         <v>775.88</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1431,7 +851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1455,7 +875,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4">
-        <v>1119.61</v>
+        <v>1119.6099999999999</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1499,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>161.45</v>
+        <v>161.44999999999999</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
@@ -1514,7 +934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1525,7 +945,7 @@
         <v>2834.4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.0166</v>
+        <v>1.66E-2</v>
       </c>
       <c r="E5">
         <v>25928.68</v>
@@ -1537,38 +957,38 @@
         <v>7729.32</v>
       </c>
       <c r="H5" s="2">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5">
-        <v>1176.89</v>
+        <v>1176.8900000000001</v>
       </c>
       <c r="K5" s="2">
-        <v>0.0512</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="L5">
         <v>1173.31</v>
       </c>
       <c r="M5" s="5">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="N5">
         <v>182.45</v>
       </c>
       <c r="O5" s="8">
-        <v>-0.0069</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="P5">
         <v>164.85</v>
       </c>
       <c r="Q5" s="10">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="R5">
         <v>3580.4</v>
       </c>
       <c r="S5" s="5">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -1576,25 +996,25 @@
         <v>361</v>
       </c>
       <c r="W5" s="4">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="X5">
         <v>53.49</v>
       </c>
       <c r="Y5" s="9">
-        <v>-0.0296</v>
+        <v>-2.9600000000000001E-2</v>
       </c>
       <c r="Z5">
         <v>166.69</v>
       </c>
       <c r="AA5" s="2">
-        <v>0.0325</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="AB5">
         <v>1780.75</v>
       </c>
       <c r="AC5" s="3">
-        <v>0.0859</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="AD5">
         <v>189.95</v>
@@ -1606,7 +1026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -1614,49 +1034,49 @@
         <v>2943.03</v>
       </c>
       <c r="D6" s="2">
-        <v>0.0383</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="E6">
         <v>26554.39</v>
       </c>
       <c r="F6" s="2">
-        <v>0.0241</v>
+        <v>2.41E-2</v>
       </c>
       <c r="G6">
         <v>8161.85</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0559</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="J6">
         <v>1202</v>
       </c>
       <c r="K6" s="2">
-        <v>0.0213</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="L6">
         <v>1191.71</v>
       </c>
       <c r="M6" s="10">
-        <v>0.0157</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="N6">
         <v>186.94</v>
       </c>
       <c r="O6" s="2">
-        <v>0.0246</v>
+        <v>2.46E-2</v>
       </c>
       <c r="P6">
         <v>165.56</v>
       </c>
       <c r="Q6" s="8">
-        <v>0.0043</v>
+        <v>4.3E-3</v>
       </c>
       <c r="R6">
         <v>3358.57</v>
       </c>
       <c r="S6" s="9">
-        <v>-0.062</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="1"/>
@@ -1670,7 +1090,7 @@
         <v>55.65</v>
       </c>
       <c r="Y6" s="2">
-        <v>0.0404</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="Z6">
         <v>193.99</v>
@@ -1688,13 +1108,13 @@
         <v>203.48</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.0712</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="AF6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -1702,34 +1122,34 @@
         <v>2757.55</v>
       </c>
       <c r="D7" s="4">
-        <v>-0.063</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E7">
         <v>24895.55</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0625</v>
+        <v>-6.25E-2</v>
       </c>
       <c r="G7">
         <v>7477.55</v>
       </c>
       <c r="H7" s="5">
-        <v>-0.0838</v>
+        <v>-8.3799999999999999E-2</v>
       </c>
       <c r="J7">
         <v>1110.24</v>
       </c>
       <c r="K7" s="4">
-        <v>-0.0763</v>
+        <v>-7.6300000000000007E-2</v>
       </c>
       <c r="L7">
         <v>1106.27</v>
       </c>
       <c r="M7" s="3">
-        <v>-0.0717</v>
+        <v>-7.17E-2</v>
       </c>
       <c r="N7">
-        <v>150.05</v>
+        <v>150.05000000000001</v>
       </c>
       <c r="O7" s="10">
         <v>-0.1973</v>
@@ -1738,13 +1158,13 @@
         <v>110.18</v>
       </c>
       <c r="Q7" s="9">
-        <v>-0.3345</v>
+        <v>-0.33450000000000002</v>
       </c>
       <c r="R7">
         <v>3068.07</v>
       </c>
       <c r="S7" s="2">
-        <v>-0.0865</v>
+        <v>-8.6499999999999994E-2</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1752,37 +1172,37 @@
         <v>326</v>
       </c>
       <c r="W7" s="8">
-        <v>-0.1654</v>
+        <v>-0.16539999999999999</v>
       </c>
       <c r="X7" t="s">
         <v>45</v>
       </c>
       <c r="Y7" s="2">
-        <v>-0.133</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="Z7">
         <v>178.1</v>
       </c>
       <c r="AA7" s="5">
-        <v>-0.082</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="AB7">
         <v>1758.65</v>
       </c>
       <c r="AC7" s="2">
-        <v>-0.0887</v>
+        <v>-8.8700000000000001E-2</v>
       </c>
       <c r="AD7">
         <v>177.35</v>
       </c>
       <c r="AE7" s="12">
-        <v>-0.1284</v>
+        <v>-0.12839999999999999</v>
       </c>
       <c r="AF7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1793,31 +1213,31 @@
         <v>2941.76</v>
       </c>
       <c r="D8" s="2">
-        <v>0.0668</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="E8">
         <v>26599.96</v>
       </c>
       <c r="F8" s="2">
-        <v>0.0685</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="G8">
         <v>8006.24</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0707</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="J8">
         <v>1082.8</v>
       </c>
       <c r="K8" s="6">
-        <v>-0.0247</v>
+        <v>-2.47E-2</v>
       </c>
       <c r="L8">
-        <v>1080.91</v>
+        <v>1080.9100000000001</v>
       </c>
       <c r="M8" s="6">
-        <v>-0.0229</v>
+        <v>-2.29E-2</v>
       </c>
       <c r="N8">
         <v>169.45</v>
@@ -1829,13 +1249,13 @@
         <v>117.36</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.0652</v>
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="R8">
         <v>3082.24</v>
       </c>
       <c r="S8" s="6">
-        <v>0.0046</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1843,34 +1263,34 @@
         <v>352.6</v>
       </c>
       <c r="W8" s="2">
-        <v>0.0816</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="X8">
         <v>50.72</v>
       </c>
       <c r="Y8" s="2">
-        <v>0.0512</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="Z8">
         <v>193</v>
       </c>
       <c r="AA8" s="7">
-        <v>0.0837</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="AB8">
         <v>1893.63</v>
       </c>
       <c r="AC8" s="2">
-        <v>0.0768</v>
+        <v>7.6799999999999993E-2</v>
       </c>
       <c r="AD8">
         <v>197.92</v>
       </c>
       <c r="AE8" s="7">
-        <v>0.116</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>49</v>
       </c>
@@ -1878,49 +1298,49 @@
         <v>3013.18</v>
       </c>
       <c r="D9" s="2">
-        <v>0.0243</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="E9">
         <v>27198.02</v>
       </c>
       <c r="F9" s="2">
-        <v>0.0225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="G9">
         <v>8273.61</v>
       </c>
       <c r="H9" s="2">
-        <v>0.0334</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="J9">
         <v>1228</v>
       </c>
       <c r="K9" s="7">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="L9">
-        <v>1225.14</v>
+        <v>1225.1400000000001</v>
       </c>
       <c r="M9" s="7">
-        <v>0.1334</v>
+        <v>0.13339999999999999</v>
       </c>
       <c r="N9">
         <v>174.1</v>
       </c>
       <c r="O9" s="2">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="P9">
         <v>112.75</v>
       </c>
       <c r="Q9" s="6">
-        <v>-0.0393</v>
+        <v>-3.9300000000000002E-2</v>
       </c>
       <c r="R9">
         <v>3091.31</v>
       </c>
       <c r="S9" s="6">
-        <v>0.0029</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1928,7 +1348,7 @@
         <v>368.2</v>
       </c>
       <c r="W9" s="2">
-        <v>0.0442</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="X9">
         <v>55.95</v>
@@ -1940,22 +1360,22 @@
         <v>197.04</v>
       </c>
       <c r="AA9" s="2">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB9">
         <v>1898.53</v>
       </c>
       <c r="AC9" s="6">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="AD9">
         <v>208.78</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.0549</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31">
+        <v>5.4899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -1963,49 +1383,49 @@
         <v>2926.46</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.029</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>26403.28</v>
+        <v>26403.279999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>-0.0292</v>
+        <v>-2.92E-2</v>
       </c>
       <c r="G10">
         <v>7962.88</v>
       </c>
       <c r="H10" s="2">
-        <v>-0.0376</v>
+        <v>-3.7600000000000001E-2</v>
       </c>
       <c r="J10">
         <v>1190.53</v>
       </c>
       <c r="K10" s="2">
-        <v>-0.0305</v>
+        <v>-3.0499999999999999E-2</v>
       </c>
       <c r="L10">
-        <v>1188.1</v>
+        <v>1188.0999999999999</v>
       </c>
       <c r="M10" s="2">
-        <v>-0.0302</v>
+        <v>-3.0200000000000001E-2</v>
       </c>
       <c r="N10">
         <v>175.03</v>
       </c>
       <c r="O10" s="2">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
       <c r="P10">
         <v>104.47</v>
       </c>
       <c r="Q10" s="2">
-        <v>-0.0734</v>
+        <v>-7.3400000000000007E-2</v>
       </c>
       <c r="R10">
         <v>3100.05</v>
       </c>
       <c r="S10" s="2">
-        <v>0.00283</v>
+        <v>2.8300000000000001E-3</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -2025,22 +1445,22 @@
         <v>185.67</v>
       </c>
       <c r="AA10" s="2">
-        <v>-0.0577</v>
+        <v>-5.7700000000000001E-2</v>
       </c>
       <c r="AB10">
         <v>1776.29</v>
       </c>
       <c r="AC10" s="2">
-        <v>-0.0644</v>
+        <v>-6.4399999999999999E-2</v>
       </c>
       <c r="AD10">
         <v>208.74</v>
       </c>
       <c r="AE10" s="2">
-        <v>-0.0001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -2048,49 +1468,49 @@
         <v>2977.74</v>
       </c>
       <c r="D11" s="2">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E11">
         <v>26962.12</v>
       </c>
       <c r="F11" s="2">
-        <v>0.0212</v>
+        <v>2.12E-2</v>
       </c>
       <c r="G11">
         <v>7979.11</v>
       </c>
       <c r="H11" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="J11">
         <v>1221.55</v>
       </c>
       <c r="K11" s="2">
-        <v>0.0261</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="L11">
         <v>1220.17</v>
       </c>
       <c r="M11" s="2">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N11">
         <v>168.55</v>
       </c>
       <c r="O11" s="2">
-        <v>-0.037</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="P11">
         <v>102.62</v>
       </c>
       <c r="Q11" s="2">
-        <v>-0.018</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="R11">
         <v>3199.24</v>
       </c>
       <c r="S11" s="2">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -2098,34 +1518,34 @@
         <v>330.2</v>
       </c>
       <c r="W11" s="2">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="X11">
         <v>39.15</v>
       </c>
       <c r="Y11" s="2">
-        <v>-0.208</v>
+        <v>-0.20799999999999999</v>
       </c>
       <c r="Z11">
         <v>177.48</v>
       </c>
       <c r="AA11" s="2">
-        <v>-0.0441</v>
+        <v>-4.41E-2</v>
       </c>
       <c r="AB11">
         <v>1727.09</v>
       </c>
       <c r="AC11" s="2">
-        <v>-0.0277</v>
+        <v>-2.7699999999999999E-2</v>
       </c>
       <c r="AD11">
         <v>223.52</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.071</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>52</v>
       </c>
@@ -2133,49 +1553,49 @@
         <v>3046.77</v>
       </c>
       <c r="D12" s="2">
-        <v>0.0232</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="E12">
         <v>27186.69</v>
       </c>
       <c r="F12" s="2">
-        <v>0.0083</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="G12">
         <v>8303.98</v>
       </c>
       <c r="H12" s="2">
-        <v>0.0407</v>
+        <v>4.07E-2</v>
       </c>
       <c r="J12">
         <v>1260.7</v>
       </c>
       <c r="K12" s="2">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="L12">
         <v>1261.29</v>
       </c>
       <c r="M12" s="2">
-        <v>0.0337</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="N12">
         <v>177.53</v>
       </c>
       <c r="O12" s="2">
-        <v>0.0533</v>
+        <v>5.33E-2</v>
       </c>
       <c r="P12">
         <v>102.93</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R12">
         <v>3079</v>
       </c>
       <c r="S12" s="2">
-        <v>-0.0376</v>
+        <v>-3.7600000000000001E-2</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -2183,34 +1603,34 @@
         <v>320.8</v>
       </c>
       <c r="W12" s="2">
-        <v>-0.0285</v>
+        <v>-2.8500000000000001E-2</v>
       </c>
       <c r="X12">
         <v>42.85</v>
       </c>
       <c r="Y12" s="2">
-        <v>0.0945</v>
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="Z12">
         <v>188.25</v>
       </c>
       <c r="AA12" s="2">
-        <v>0.0607</v>
+        <v>6.0699999999999997E-2</v>
       </c>
       <c r="AB12">
         <v>1779.99</v>
       </c>
       <c r="AC12" s="2">
-        <v>0.0306</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="AD12">
         <v>243.26</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.0883</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31">
+        <v>8.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>53</v>
       </c>
@@ -2218,49 +1638,49 @@
         <v>3140.98</v>
       </c>
       <c r="D13" s="2">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E13">
         <v>28051.41</v>
       </c>
       <c r="F13" s="2">
-        <v>0.0318</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="G13">
-        <v>8665.47</v>
+        <v>8665.4699999999993</v>
       </c>
       <c r="H13" s="2">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="J13">
-        <v>1304.09</v>
+        <v>1304.0899999999999</v>
       </c>
       <c r="K13" s="2">
-        <v>0.0344</v>
+        <v>3.44E-2</v>
       </c>
       <c r="L13">
         <v>1304.96</v>
       </c>
       <c r="M13" s="2">
-        <v>0.0346</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="N13">
         <v>200</v>
       </c>
       <c r="O13" s="2">
-        <v>0.1266</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="P13">
         <v>118.53</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.1516</v>
+        <v>0.15160000000000001</v>
       </c>
       <c r="R13">
         <v>3203.12</v>
       </c>
       <c r="S13" s="2">
-        <v>0.0403</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -2268,34 +1688,34 @@
         <v>331.8</v>
       </c>
       <c r="W13" s="2">
-        <v>0.0343</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="X13">
         <v>43.39</v>
       </c>
       <c r="Y13" s="2">
-        <v>0.0126</v>
+        <v>1.26E-2</v>
       </c>
       <c r="Z13">
         <v>201.64</v>
       </c>
       <c r="AA13" s="2">
-        <v>0.0711</v>
+        <v>7.1099999999999997E-2</v>
       </c>
       <c r="AB13">
         <v>1800.8</v>
       </c>
       <c r="AC13" s="2">
-        <v>0.0117</v>
+        <v>1.17E-2</v>
       </c>
       <c r="AD13">
         <v>267.25</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.0986</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31">
+        <v>9.8599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>54</v>
       </c>
@@ -2303,49 +1723,49 @@
         <v>3221.29</v>
       </c>
       <c r="D14" s="2">
-        <v>0.0256</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="E14">
         <v>28462.14</v>
       </c>
       <c r="F14" s="2">
-        <v>0.0146</v>
+        <v>1.46E-2</v>
       </c>
       <c r="G14">
         <v>8945.99</v>
       </c>
       <c r="H14" s="2">
-        <v>0.0324</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="J14">
         <v>1334.44</v>
       </c>
       <c r="K14" s="2">
-        <v>0.0233</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="L14">
         <v>1331.47</v>
       </c>
       <c r="M14" s="2">
-        <v>0.0203</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="N14">
         <v>212.7</v>
       </c>
       <c r="O14" s="2">
-        <v>0.0635</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="P14">
         <v>126.45</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.0668</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="R14">
         <v>3669.2</v>
       </c>
       <c r="S14" s="2">
-        <v>0.1455</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2353,34 +1773,34 @@
         <v>375.6</v>
       </c>
       <c r="W14" s="2">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="X14">
         <v>47.67</v>
       </c>
       <c r="Y14" s="2">
-        <v>0.0986</v>
+        <v>9.8599999999999993E-2</v>
       </c>
       <c r="Z14">
         <v>204.44</v>
       </c>
       <c r="AA14" s="2">
-        <v>0.0139</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="AB14">
         <v>1837.84</v>
       </c>
       <c r="AC14" s="2">
-        <v>0.0206</v>
+        <v>2.06E-2</v>
       </c>
       <c r="AD14">
         <v>291.06</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.0891</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31">
+        <v>8.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -2388,86 +1808,86 @@
         <v>3283.66</v>
       </c>
       <c r="D15" s="2">
-        <v>0.0194</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="E15">
-        <v>28859.44</v>
+        <v>28859.439999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G15">
         <v>9298.93</v>
       </c>
       <c r="H15" s="2">
-        <v>0.0395</v>
+        <v>3.95E-2</v>
       </c>
       <c r="J15">
         <v>1454.25</v>
       </c>
       <c r="K15" s="2">
-        <v>0.0898</v>
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="L15">
         <v>1455.84</v>
       </c>
       <c r="M15" s="2">
-        <v>0.0934</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="N15">
         <v>208.58</v>
       </c>
       <c r="O15" s="2">
-        <v>-0.0194</v>
+        <v>-1.9400000000000001E-2</v>
       </c>
       <c r="P15">
         <v>125.74</v>
       </c>
       <c r="Q15" s="2">
-        <v>-0.0056</v>
+        <v>-5.5999999999999999E-3</v>
       </c>
       <c r="R15">
-        <v>4109.48</v>
+        <v>4109.4799999999996</v>
       </c>
       <c r="S15" s="2">
         <v>0.12</v>
       </c>
       <c r="T15" s="14">
-        <v>650.57</v>
+        <v>650.57000000000005</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15">
         <v>376.2</v>
       </c>
       <c r="W15" s="2">
-        <v>0.0016</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="X15">
         <v>59.83</v>
       </c>
       <c r="Y15" s="2">
-        <v>0.2551</v>
+        <v>0.25509999999999999</v>
       </c>
       <c r="Z15">
         <v>209.53</v>
       </c>
       <c r="AA15" s="2">
-        <v>0.0249</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="AB15">
         <v>1870.68</v>
       </c>
       <c r="AC15" s="2">
-        <v>0.0179</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="AD15">
         <v>323.87</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.1127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
+        <v>0.11269999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2481,22 +1901,22 @@
         <v>-0.1003</v>
       </c>
       <c r="E16">
-        <v>25409.36</v>
+        <v>25409.360000000001</v>
       </c>
       <c r="F16" s="2">
         <v>-0.1195</v>
       </c>
       <c r="G16">
-        <v>8567.37</v>
+        <v>8567.3700000000008</v>
       </c>
       <c r="H16" s="2">
-        <v>-0.0787</v>
+        <v>-7.8700000000000006E-2</v>
       </c>
       <c r="J16">
         <v>1339.25</v>
       </c>
       <c r="K16" s="2">
-        <v>-0.0791</v>
+        <v>-7.9100000000000004E-2</v>
       </c>
       <c r="L16">
         <v>1339.33</v>
@@ -2508,49 +1928,49 @@
         <v>208</v>
       </c>
       <c r="O16" s="2">
-        <v>-0.0028</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="P16">
         <v>119.98</v>
       </c>
       <c r="Q16" s="2">
-        <v>-0.0458</v>
+        <v>-4.58E-2</v>
       </c>
       <c r="R16">
         <v>4341.51</v>
       </c>
       <c r="S16" s="2">
-        <v>0.0565</v>
+        <v>5.6500000000000002E-2</v>
       </c>
       <c r="T16">
         <v>667.99</v>
       </c>
       <c r="U16" s="2">
-        <v>0.0268</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="V16">
         <v>386</v>
       </c>
       <c r="W16" s="2">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="X16">
         <v>65.37</v>
       </c>
       <c r="Y16" s="2">
-        <v>0.0926</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="Z16">
         <v>192.47</v>
       </c>
       <c r="AA16" s="2">
-        <v>-0.0814</v>
+        <v>-8.14E-2</v>
       </c>
       <c r="AB16">
         <v>1883.75</v>
       </c>
       <c r="AC16" s="2">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD16">
         <v>273.36</v>
@@ -2559,7 +1979,7 @@
         <v>-0.156</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2570,7 +1990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>61</v>
       </c>
@@ -2584,31 +2004,31 @@
         <v>22327.48</v>
       </c>
       <c r="F18" s="2">
-        <v>-0.1213</v>
+        <v>-0.12130000000000001</v>
       </c>
       <c r="G18">
         <v>7774.15</v>
       </c>
       <c r="H18" s="2">
-        <v>-0.0926</v>
+        <v>-9.2600000000000002E-2</v>
       </c>
       <c r="J18">
         <v>1146.42</v>
       </c>
       <c r="K18" s="2">
-        <v>-0.144</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="L18">
         <v>1146</v>
       </c>
       <c r="M18" s="2">
-        <v>0.1443</v>
+        <v>0.14430000000000001</v>
       </c>
       <c r="N18">
         <v>190.46</v>
       </c>
       <c r="O18" s="2">
-        <v>-0.0843</v>
+        <v>-8.43E-2</v>
       </c>
       <c r="P18">
         <v>98.84</v>
@@ -2620,112 +2040,198 @@
         <v>3637.88</v>
       </c>
       <c r="S18" s="2">
-        <v>-0.1621</v>
+        <v>-0.16209999999999999</v>
       </c>
       <c r="T18">
         <v>531.02</v>
       </c>
       <c r="U18" s="2">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="V18">
         <v>380.2</v>
       </c>
       <c r="W18" s="2">
-        <v>-0.015</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="X18">
         <v>59.97</v>
       </c>
       <c r="Y18" s="2">
-        <v>-0.0826</v>
+        <v>-8.2600000000000007E-2</v>
       </c>
       <c r="Z18">
         <v>165.18</v>
       </c>
       <c r="AA18" s="2">
-        <v>-0.1418</v>
+        <v>-0.14180000000000001</v>
       </c>
       <c r="AB18">
         <v>1954.23</v>
       </c>
       <c r="AC18" s="2">
-        <v>0.0374</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="AD18">
         <v>254.65</v>
       </c>
       <c r="AE18" s="2">
-        <v>-0.0684</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>-6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="B19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19">
+        <v>2939.51</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.1191</v>
+      </c>
+      <c r="E19">
+        <v>24633.86</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.1033</v>
+      </c>
+      <c r="G19">
+        <v>8914.7099999999991</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.1467</v>
+      </c>
+      <c r="J19">
+        <v>1342.18</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.17080000000000001</v>
+      </c>
+      <c r="L19">
+        <v>1341.48</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.1706</v>
+      </c>
+      <c r="N19">
+        <v>206.7</v>
+      </c>
+      <c r="O19" s="2">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="P19">
+        <v>99.67</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="R19">
+        <v>3958.33</v>
+      </c>
+      <c r="S19" s="2">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="T19">
+        <v>826.77</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="V19">
+        <v>417</v>
+      </c>
+      <c r="W19" s="2">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="X19">
+        <v>59.96</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Z19">
+        <v>194.19</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>2372.71</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0.21410000000000001</v>
+      </c>
+      <c r="AD19">
+        <v>287.73</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AN27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2793,12 +2299,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2806,7 +2312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2814,7 +2320,7 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>1119.61</v>
+        <v>1119.6099999999999</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2823,7 +2329,7 @@
         <v>83</v>
       </c>
       <c r="G4">
-        <v>161.45</v>
+        <v>161.44999999999999</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -2859,7 +2365,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2867,19 +2373,19 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>1176.89</v>
+        <v>1176.8900000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0512</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="F5">
-        <v>1.0512</v>
+        <v>1.0511999999999999</v>
       </c>
       <c r="G5">
         <v>166.69</v>
       </c>
       <c r="H5" s="2">
-        <v>0.0325</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="I5">
         <v>1.0325</v>
@@ -2888,25 +2394,25 @@
         <v>1780.75</v>
       </c>
       <c r="K5" s="3">
-        <v>0.0859</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="L5">
-        <v>1.0859</v>
+        <v>1.0859000000000001</v>
       </c>
       <c r="M5">
         <v>182.45</v>
       </c>
       <c r="N5" s="8">
-        <v>-0.0069</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="O5">
-        <v>0.9931</v>
+        <v>0.99309999999999998</v>
       </c>
       <c r="P5">
         <v>361</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="R5">
         <v>1.056</v>
@@ -2921,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2932,10 +2438,10 @@
         <v>1202</v>
       </c>
       <c r="E6" s="2">
-        <v>0.0213</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>1.0736</v>
+        <v>1.0736000000000001</v>
       </c>
       <c r="G6">
         <v>193.99</v>
@@ -2953,16 +2459,16 @@
         <v>42</v>
       </c>
       <c r="L6">
-        <v>1.17678</v>
+        <v>1.1767799999999999</v>
       </c>
       <c r="M6">
         <v>186.94</v>
       </c>
       <c r="N6" s="2">
-        <v>0.0246</v>
+        <v>2.46E-2</v>
       </c>
       <c r="O6">
-        <v>1.0175</v>
+        <v>1.0175000000000001</v>
       </c>
       <c r="P6">
         <v>390.6</v>
@@ -2974,7 +2480,7 @@
         <v>1.14259</v>
       </c>
       <c r="S6">
-        <v>283.65</v>
+        <v>283.64999999999998</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -2995,13 +2501,13 @@
         <v>203.48</v>
       </c>
       <c r="AC6" s="2">
-        <v>0.0712</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="AD6">
-        <v>1.0712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.0711999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -3009,28 +2515,28 @@
         <v>44</v>
       </c>
       <c r="D7">
-        <v>1112.12</v>
+        <v>1112.1199999999999</v>
       </c>
       <c r="E7" s="4">
-        <v>-0.0748</v>
+        <v>-7.4800000000000005E-2</v>
       </c>
       <c r="F7">
-        <v>0.9933</v>
+        <v>0.99329999999999996</v>
       </c>
       <c r="G7">
         <v>178.58</v>
       </c>
       <c r="H7" s="5">
-        <v>-0.0794</v>
+        <v>-7.9399999999999998E-2</v>
       </c>
       <c r="I7">
-        <v>1.1061</v>
+        <v>1.1061000000000001</v>
       </c>
       <c r="J7">
         <v>1788.86</v>
       </c>
       <c r="K7" s="3">
-        <v>-0.073</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="L7">
         <v>1.091</v>
@@ -3042,25 +2548,25 @@
         <v>-0.1971</v>
       </c>
       <c r="O7">
-        <v>0.817</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="P7">
         <v>326</v>
       </c>
       <c r="Q7" s="10">
-        <v>-0.1654</v>
+        <v>-0.16539999999999999</v>
       </c>
       <c r="R7">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="S7">
         <v>250.99</v>
       </c>
       <c r="T7" s="2">
-        <v>-0.1151</v>
+        <v>-0.11509999999999999</v>
       </c>
       <c r="U7">
-        <v>0.8849</v>
+        <v>0.88490000000000002</v>
       </c>
       <c r="V7">
         <v>25.79</v>
@@ -3069,19 +2575,19 @@
         <v>-0.1366</v>
       </c>
       <c r="X7">
-        <v>0.8634</v>
+        <v>0.86339999999999995</v>
       </c>
       <c r="AB7">
         <v>177.35</v>
       </c>
       <c r="AC7" s="12">
-        <v>-0.1284</v>
+        <v>-0.12839999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.9336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -3095,25 +2601,25 @@
         <v>1082.8</v>
       </c>
       <c r="E8" s="6">
-        <v>-0.0264</v>
+        <v>-2.64E-2</v>
       </c>
       <c r="F8">
-        <v>0.9671</v>
+        <v>0.96709999999999996</v>
       </c>
       <c r="G8">
         <v>193</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0807</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="I8">
-        <v>1.195</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="J8">
         <v>1893.63</v>
       </c>
       <c r="K8" s="6">
-        <v>0.0586</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="L8">
         <v>1.155</v>
@@ -3125,13 +2631,13 @@
         <v>0.129</v>
       </c>
       <c r="O8">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="P8">
         <v>352.6</v>
       </c>
       <c r="Q8" s="7">
-        <v>0.0816</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="R8">
         <v>1.032</v>
@@ -3140,7 +2646,7 @@
         <v>255.77</v>
       </c>
       <c r="T8" s="6">
-        <v>0.0188</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="U8">
         <v>0.9</v>
@@ -3149,7 +2655,7 @@
         <v>84</v>
       </c>
       <c r="W8" s="7">
-        <v>0.1745</v>
+        <v>0.17449999999999999</v>
       </c>
       <c r="X8">
         <v>1.014</v>
@@ -3158,13 +2664,13 @@
         <v>197.92</v>
       </c>
       <c r="AC8" s="7">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="AD8">
         <v>1.0419</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -3184,7 +2690,7 @@
         <v>197.04</v>
       </c>
       <c r="H9" s="2">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I9">
         <v>1.22</v>
@@ -3193,28 +2699,28 @@
         <v>1898.53</v>
       </c>
       <c r="K9" s="6">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="L9">
-        <v>1.158</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="M9">
         <v>174.1</v>
       </c>
       <c r="N9" s="7">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="O9">
-        <v>0.9472</v>
+        <v>0.94720000000000004</v>
       </c>
       <c r="P9">
         <v>368.2</v>
       </c>
       <c r="Q9" s="7">
-        <v>0.0442</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="R9">
-        <v>1.0776</v>
+        <v>1.0775999999999999</v>
       </c>
       <c r="S9">
         <v>232.78</v>
@@ -3223,13 +2729,13 @@
         <v>-0.09</v>
       </c>
       <c r="U9">
-        <v>0.819</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="V9">
         <v>30.42</v>
       </c>
       <c r="W9" s="6">
-        <v>0.0043</v>
+        <v>4.3E-3</v>
       </c>
       <c r="X9">
         <v>1.0184</v>
@@ -3238,13 +2744,13 @@
         <v>208.78</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.0549</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="AD9">
         <v>1.0991</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3255,16 +2761,16 @@
         <v>1190.53</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.0305</v>
+        <v>-3.0499999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>1.0633</v>
+        <v>1.0632999999999999</v>
       </c>
       <c r="G10">
         <v>185.67</v>
       </c>
       <c r="H10" s="2">
-        <v>-0.0577</v>
+        <v>-5.7700000000000001E-2</v>
       </c>
       <c r="I10">
         <v>1.1496</v>
@@ -3273,19 +2779,19 @@
         <v>1776.29</v>
       </c>
       <c r="K10" s="2">
-        <v>-0.0644</v>
+        <v>-6.4399999999999999E-2</v>
       </c>
       <c r="L10">
-        <v>1.0834</v>
+        <v>1.0833999999999999</v>
       </c>
       <c r="M10">
         <v>175.03</v>
       </c>
       <c r="N10" s="2">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
       <c r="O10">
-        <v>0.9522</v>
+        <v>0.95220000000000005</v>
       </c>
       <c r="P10">
         <v>324.8</v>
@@ -3300,7 +2806,7 @@
         <v>255</v>
       </c>
       <c r="T10" s="2">
-        <v>0.0955</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="U10">
         <v>0.8972</v>
@@ -3309,22 +2815,22 @@
         <v>30.5</v>
       </c>
       <c r="W10" s="2">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="X10">
-        <v>1.021</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="AB10">
         <v>208.74</v>
       </c>
       <c r="AC10" s="2">
-        <v>-0.0001</v>
+        <v>-1E-4</v>
       </c>
       <c r="AD10">
         <v>1.099</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -3335,16 +2841,16 @@
         <v>1222</v>
       </c>
       <c r="E11" s="2">
-        <v>0.0264</v>
+        <v>2.64E-2</v>
       </c>
       <c r="F11">
-        <v>1.0913</v>
+        <v>1.0912999999999999</v>
       </c>
       <c r="G11">
         <v>177.45</v>
       </c>
       <c r="H11" s="2">
-        <v>-0.0443</v>
+        <v>-4.4299999999999999E-2</v>
       </c>
       <c r="I11">
         <v>1.0987</v>
@@ -3353,7 +2859,7 @@
         <v>1725.88</v>
       </c>
       <c r="K11" s="2">
-        <v>-0.0284</v>
+        <v>-2.8400000000000002E-2</v>
       </c>
       <c r="L11">
         <v>1.0526</v>
@@ -3362,37 +2868,37 @@
         <v>168.56</v>
       </c>
       <c r="N11" s="2">
-        <v>-0.037</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="O11">
-        <v>0.917</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="P11">
         <v>330.2</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="R11">
-        <v>0.9567</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="S11">
         <v>274.18</v>
       </c>
       <c r="T11" s="2">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="U11">
-        <v>0.9645</v>
+        <v>0.96450000000000002</v>
       </c>
       <c r="V11">
         <v>28.15</v>
       </c>
       <c r="W11" s="2">
-        <v>-0.077</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="X11">
-        <v>0.9423</v>
+        <v>0.94230000000000003</v>
       </c>
       <c r="Y11">
         <v>1150</v>
@@ -3407,13 +2913,13 @@
         <v>223.52</v>
       </c>
       <c r="AC11" s="2">
-        <v>0.071</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="AD11">
         <v>1.177</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -3424,16 +2930,16 @@
         <v>1260.7</v>
       </c>
       <c r="E12" s="2">
-        <v>0.0317</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F12">
-        <v>1.1259</v>
+        <v>1.1258999999999999</v>
       </c>
       <c r="G12">
         <v>188.25</v>
       </c>
       <c r="H12" s="2">
-        <v>0.0609</v>
+        <v>6.0900000000000003E-2</v>
       </c>
       <c r="I12">
         <v>1.1656</v>
@@ -3442,37 +2948,37 @@
         <v>1779.99</v>
       </c>
       <c r="K12" s="2">
-        <v>0.0314</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="L12">
-        <v>1.0857</v>
+        <v>1.0857000000000001</v>
       </c>
       <c r="M12">
         <v>177.53</v>
       </c>
       <c r="N12" s="2">
-        <v>0.0532</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="O12">
-        <v>0.966</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="P12">
         <v>320.8</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.0303</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="R12">
-        <v>0.9857</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="S12">
         <v>286.14</v>
       </c>
       <c r="T12" s="2">
-        <v>0.0436</v>
+        <v>4.36E-2</v>
       </c>
       <c r="U12">
-        <v>1.0066</v>
+        <v>1.0065999999999999</v>
       </c>
       <c r="V12">
         <v>31.69</v>
@@ -3487,7 +2993,7 @@
         <v>1180.01</v>
       </c>
       <c r="Z12" s="2">
-        <v>0.0261</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="AA12">
         <v>1.0261</v>
@@ -3496,13 +3002,13 @@
         <v>243.26</v>
       </c>
       <c r="AC12" s="2">
-        <v>0.0883</v>
+        <v>8.8300000000000003E-2</v>
       </c>
       <c r="AD12">
-        <v>1.2809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.2808999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3510,10 +3016,10 @@
         <v>53</v>
       </c>
       <c r="D13">
-        <v>1304.09</v>
+        <v>1304.0899999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>0.0344</v>
+        <v>3.44E-2</v>
       </c>
       <c r="F13">
         <v>1.1616</v>
@@ -3522,16 +3028,16 @@
         <v>201.64</v>
       </c>
       <c r="H13" s="2">
-        <v>0.0711</v>
+        <v>7.1099999999999997E-2</v>
       </c>
       <c r="I13">
-        <v>1.2485</v>
+        <v>1.2484999999999999</v>
       </c>
       <c r="J13">
         <v>1800.8</v>
       </c>
       <c r="K13" s="2">
-        <v>0.0117</v>
+        <v>1.17E-2</v>
       </c>
       <c r="L13">
         <v>1.0984</v>
@@ -3540,7 +3046,7 @@
         <v>200</v>
       </c>
       <c r="N13" s="2">
-        <v>0.1266</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="O13">
         <v>1.0883</v>
@@ -3549,16 +3055,16 @@
         <v>331.8</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.0343</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="R13">
-        <v>1.0195</v>
+        <v>1.0195000000000001</v>
       </c>
       <c r="S13">
         <v>315.32</v>
       </c>
       <c r="T13" s="2">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="U13">
         <v>1.1093</v>
@@ -3567,7 +3073,7 @@
         <v>32.65</v>
       </c>
       <c r="W13" s="2">
-        <v>0.0303</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="X13">
         <v>1.0929</v>
@@ -3576,22 +3082,22 @@
         <v>1129</v>
       </c>
       <c r="Z13" s="2">
-        <v>-0.0432</v>
+        <v>-4.3200000000000002E-2</v>
       </c>
       <c r="AA13">
-        <v>0.9818</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="AB13">
         <v>267.25</v>
       </c>
       <c r="AC13" s="2">
-        <v>0.0986</v>
+        <v>9.8599999999999993E-2</v>
       </c>
       <c r="AD13">
         <v>1.4072</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -3602,16 +3108,16 @@
         <v>1333.84</v>
       </c>
       <c r="E14" s="2">
-        <v>0.0228</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>1.1881</v>
+        <v>1.1880999999999999</v>
       </c>
       <c r="G14">
         <v>204.48</v>
       </c>
       <c r="H14" s="2">
-        <v>0.0141</v>
+        <v>1.41E-2</v>
       </c>
       <c r="I14">
         <v>1.2661</v>
@@ -3620,43 +3126,43 @@
         <v>1839.55</v>
       </c>
       <c r="K14" s="2">
-        <v>0.0215</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="L14">
-        <v>1.122</v>
+        <v>1.1220000000000001</v>
       </c>
       <c r="M14">
         <v>212.39</v>
       </c>
       <c r="N14" s="2">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="O14">
-        <v>1.1558</v>
+        <v>1.1557999999999999</v>
       </c>
       <c r="P14">
         <v>375.6</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="R14">
-        <v>1.1541</v>
+        <v>1.1540999999999999</v>
       </c>
       <c r="S14">
         <v>305.08</v>
       </c>
       <c r="T14" s="2">
-        <v>-0.0325</v>
+        <v>-3.2500000000000001E-2</v>
       </c>
       <c r="U14">
-        <v>1.0732</v>
+        <v>1.0731999999999999</v>
       </c>
       <c r="V14">
         <v>35.35</v>
       </c>
       <c r="W14" s="2">
-        <v>0.0827</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="X14">
         <v>1.1833</v>
@@ -3665,22 +3171,22 @@
         <v>1183</v>
       </c>
       <c r="Z14" s="2">
-        <v>0.0478</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="AA14">
-        <v>1.0287</v>
+        <v>1.0286999999999999</v>
       </c>
       <c r="AB14">
         <v>291.17</v>
       </c>
       <c r="AC14" s="2">
-        <v>0.0895</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="AD14">
-        <v>1.5331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
+        <v>1.5330999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3691,25 +3197,25 @@
         <v>1454.25</v>
       </c>
       <c r="E15" s="2">
-        <v>0.0903</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="F15">
-        <v>1.2954</v>
+        <v>1.2954000000000001</v>
       </c>
       <c r="G15">
         <v>209.53</v>
       </c>
       <c r="H15" s="2">
-        <v>0.0247</v>
+        <v>2.47E-2</v>
       </c>
       <c r="I15">
-        <v>1.2974</v>
+        <v>1.2974000000000001</v>
       </c>
       <c r="J15">
         <v>1870.68</v>
       </c>
       <c r="K15" s="2">
-        <v>0.0169</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="L15">
         <v>1.141</v>
@@ -3718,7 +3224,7 @@
         <v>208.58</v>
       </c>
       <c r="N15" s="2">
-        <v>-0.0179</v>
+        <v>-1.7899999999999999E-2</v>
       </c>
       <c r="O15">
         <v>1.1351</v>
@@ -3727,7 +3233,7 @@
         <v>376</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.0011</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="R15">
         <v>1.1554</v>
@@ -3736,16 +3242,16 @@
         <v>328</v>
       </c>
       <c r="T15" s="2">
-        <v>0.0751</v>
+        <v>7.51E-2</v>
       </c>
       <c r="U15">
-        <v>1.1538</v>
+        <v>1.1537999999999999</v>
       </c>
       <c r="V15">
         <v>38.49</v>
       </c>
       <c r="W15" s="2">
-        <v>0.0888</v>
+        <v>8.8800000000000004E-2</v>
       </c>
       <c r="X15">
         <v>1.2884</v>
@@ -3757,7 +3263,7 @@
         <v>-0.1101</v>
       </c>
       <c r="AA15">
-        <v>0.9154</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="AB15">
         <v>323.87</v>
@@ -3787,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -3798,16 +3304,16 @@
         <v>1339.25</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.0791</v>
+        <v>-7.9100000000000004E-2</v>
       </c>
       <c r="F16">
-        <v>1.1929</v>
+        <v>1.1929000000000001</v>
       </c>
       <c r="G16">
         <v>192.47</v>
       </c>
       <c r="H16" s="2">
-        <v>-0.0814</v>
+        <v>-8.14E-2</v>
       </c>
       <c r="I16">
         <v>1.1917</v>
@@ -3816,7 +3322,7 @@
         <v>1883.75</v>
       </c>
       <c r="K16" s="2">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L16">
         <v>1.149</v>
@@ -3825,25 +3331,25 @@
         <v>208</v>
       </c>
       <c r="N16" s="2">
-        <v>-0.0028</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="O16">
-        <v>1.1319</v>
+        <v>1.1318999999999999</v>
       </c>
       <c r="P16">
         <v>386</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.0266</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="R16">
-        <v>1.1861</v>
+        <v>1.1860999999999999</v>
       </c>
       <c r="S16">
-        <v>318.71</v>
+        <v>318.70999999999998</v>
       </c>
       <c r="T16" s="2">
-        <v>-0.0283</v>
+        <v>-2.8299999999999999E-2</v>
       </c>
       <c r="U16">
         <v>1.1211</v>
@@ -3852,19 +3358,19 @@
         <v>38.51</v>
       </c>
       <c r="W16" s="2">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="X16">
-        <v>1.289</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="Y16">
         <v>1057</v>
       </c>
       <c r="Z16" s="2">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA16">
-        <v>0.9191</v>
+        <v>0.91910000000000003</v>
       </c>
       <c r="AB16">
         <v>273.36</v>
@@ -3879,31 +3385,31 @@
         <v>50.96</v>
       </c>
       <c r="AF16" s="2">
-        <v>-0.0407</v>
+        <v>-4.07E-2</v>
       </c>
       <c r="AG16">
-        <v>0.9593</v>
+        <v>0.95930000000000004</v>
       </c>
       <c r="AH16">
         <v>55.53</v>
       </c>
       <c r="AI16" s="2">
-        <v>-0.098</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="AJ16">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="AK16">
         <v>98.9</v>
       </c>
       <c r="AL16" s="2">
-        <v>-0.004</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AM16">
         <v>0.996</v>
       </c>
     </row>
-    <row r="18" spans="2:40">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>61</v>
       </c>
@@ -3914,31 +3420,31 @@
         <v>-0.1469</v>
       </c>
       <c r="F18">
-        <v>1.0176</v>
+        <v>1.0176000000000001</v>
       </c>
       <c r="G18">
         <v>164.57</v>
       </c>
       <c r="H18" s="2">
-        <v>-0.14496</v>
+        <v>-0.14496000000000001</v>
       </c>
       <c r="I18">
-        <v>1.0189</v>
+        <v>1.0188999999999999</v>
       </c>
       <c r="J18">
         <v>1959.51</v>
       </c>
       <c r="K18" s="2">
-        <v>0.0402</v>
+        <v>4.02E-2</v>
       </c>
       <c r="L18">
-        <v>1.1951</v>
+        <v>1.1951000000000001</v>
       </c>
       <c r="M18">
         <v>191.94</v>
       </c>
       <c r="N18" s="2">
-        <v>-0.0772</v>
+        <v>-7.7200000000000005E-2</v>
       </c>
       <c r="O18">
         <v>1.0445</v>
@@ -3947,174 +3453,288 @@
         <v>380.2</v>
       </c>
       <c r="Q18" s="2">
-        <v>-0.015</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="R18">
-        <v>1.1683</v>
+        <v>1.1682999999999999</v>
       </c>
       <c r="S18">
-        <v>312.15</v>
+        <v>312.14999999999998</v>
       </c>
       <c r="T18" s="2">
-        <v>-0.0206</v>
+        <v>-2.06E-2</v>
       </c>
       <c r="U18">
-        <v>1.098</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="V18">
-        <v>40.13</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="W18" s="2">
-        <v>0.0421</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="X18">
-        <v>1.3433</v>
+        <v>1.3432999999999999</v>
       </c>
       <c r="Y18">
         <v>1111</v>
       </c>
       <c r="Z18" s="2">
-        <v>0.0511</v>
+        <v>5.11E-2</v>
       </c>
       <c r="AA18">
-        <v>0.9661</v>
+        <v>0.96609999999999996</v>
       </c>
       <c r="AB18">
         <v>254.94</v>
       </c>
       <c r="AC18" s="2">
-        <v>-0.0674</v>
+        <v>-6.7400000000000002E-2</v>
       </c>
       <c r="AD18">
         <v>1.3423</v>
       </c>
       <c r="AE18">
-        <v>37.52</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="AF18" s="2">
-        <v>-0.2637</v>
+        <v>-0.26369999999999999</v>
       </c>
       <c r="AG18">
-        <v>0.7063</v>
+        <v>0.70630000000000004</v>
       </c>
       <c r="AH18">
         <v>39.46</v>
       </c>
       <c r="AI18" s="2">
-        <v>-0.2894</v>
+        <v>-0.28939999999999999</v>
       </c>
       <c r="AJ18">
-        <v>0.641</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="AK18">
         <v>93.65</v>
       </c>
       <c r="AL18" s="2">
-        <v>-0.0531</v>
+        <v>-5.3100000000000001E-2</v>
       </c>
       <c r="AM18">
-        <v>0.943</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="AN18">
         <v>84.59</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="AP18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="D19">
+        <v>1342.18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.17480000000000001</v>
+      </c>
+      <c r="F19">
+        <v>1.1955</v>
+      </c>
+      <c r="G19">
+        <v>194.19</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="I19">
+        <v>12.02</v>
+      </c>
+      <c r="J19">
+        <v>2372.71</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.2109</v>
+      </c>
+      <c r="L19">
+        <v>1.4471000000000001</v>
+      </c>
+      <c r="M19">
+        <v>206.7</v>
+      </c>
+      <c r="N19" s="2">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="O19">
+        <v>1.1248</v>
+      </c>
+      <c r="P19">
+        <v>417</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="R19">
+        <v>1.2814000000000001</v>
+      </c>
+      <c r="S19">
+        <v>358.38</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="U19">
+        <v>1.2605999999999999</v>
+      </c>
+      <c r="V19">
+        <v>44.34</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="X19">
+        <v>1.4842</v>
+      </c>
+      <c r="Y19">
+        <v>1265.7</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0.13919999999999999</v>
+      </c>
+      <c r="AA19">
+        <v>1.1006</v>
+      </c>
+      <c r="AB19">
+        <v>287.73</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="AD19">
+        <v>1.5148999999999999</v>
+      </c>
+      <c r="AE19">
+        <v>41.67</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0.1106</v>
+      </c>
+      <c r="AG19">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="AH19">
+        <v>41.77</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="AJ19">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="AK19">
+        <v>103.8</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>0.1084</v>
+      </c>
+      <c r="AM19">
+        <v>1.0451999999999999</v>
+      </c>
+      <c r="AN19">
+        <v>90.32</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="AP19">
+        <v>1.0678000000000001</v>
+      </c>
+      <c r="AQ19" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/月末作业投资股票数据.xlsx
+++ b/月末作业投资股票数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dataScoks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A185AB22-04F9-41CF-8C27-6155AF253526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB692D6-23F6-4411-A593-40F626EDE6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="418" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="418" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AP19" sqref="AP19"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3548,7 +3548,7 @@
         <v>0.18</v>
       </c>
       <c r="I19">
-        <v>12.02</v>
+        <v>1.2022999999999999</v>
       </c>
       <c r="J19">
         <v>2372.71</v>
@@ -3696,7 +3696,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/月末作业投资股票数据.xlsx
+++ b/月末作业投资股票数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dataScoks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB692D6-23F6-4411-A593-40F626EDE6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5DA98A-0812-4611-9619-A55AB40013A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="418" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2410" yWindow="840" windowWidth="16470" windowHeight="9360" tabRatio="418" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,71 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>workT</author>
+  </authors>
+  <commentList>
+    <comment ref="W20" authorId="0" shapeId="0" xr:uid="{57510B1C-D723-4AEE-9EB0-804D55455052}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>workT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+疫情期间，京东商城在线上的购买量大大提升，是主要原因之一。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL20" authorId="0" shapeId="0" xr:uid="{A73BBEDB-B072-4E19-A23B-001A364D0BC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>workT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+疫情期间到店消费的人数大量减少，流量都跑到线上，如外卖，。。。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="88">
   <si>
     <t>T\N</t>
   </si>
@@ -286,6 +349,10 @@
   </si>
   <si>
     <t>价值价格的理解：好股票不是价格决定的，不能因为买不起价格高的就买价格低的，这个逻辑不对；当然价格低的不是就不好，比如中药，云南白药（大家觉得好的，它不行也必须行。）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰控股（2020/5/31）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +416,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +475,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -406,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -423,6 +511,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -727,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2175,6 +2264,90 @@
       <c r="B20" t="s">
         <v>63</v>
       </c>
+      <c r="C20">
+        <v>3044.31</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="E20">
+        <v>25383.11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.04E-2</v>
+      </c>
+      <c r="G20">
+        <v>9489.8700000000008</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="J20">
+        <v>1433.52</v>
+      </c>
+      <c r="K20" s="2">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="L20">
+        <v>1428.92</v>
+      </c>
+      <c r="M20" s="2">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="N20">
+        <v>207.39</v>
+      </c>
+      <c r="O20" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="P20">
+        <v>106.55</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="R20">
+        <v>3960.01</v>
+      </c>
+      <c r="S20" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="T20">
+        <v>835</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V20">
+        <v>410.4</v>
+      </c>
+      <c r="W20" s="2">
+        <v>-1.5800000000000002E-2</v>
+      </c>
+      <c r="X20">
+        <v>57.41</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>-4.2500000000000003E-2</v>
+      </c>
+      <c r="Z20">
+        <v>225.09</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="AB20">
+        <v>2442.37</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="AD20">
+        <v>317.94</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -2219,11 +2392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AQ27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="AF10" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2231,7 +2404,7 @@
     <col min="2" max="2" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2298,13 +2471,16 @@
       <c r="AN1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR1" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2312,7 +2488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2322,7 +2498,7 @@
       <c r="D4">
         <v>1119.6099999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
       <c r="F4" t="s">
@@ -2331,7 +2507,7 @@
       <c r="G4">
         <v>161.44999999999999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="16">
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -2340,7 +2516,7 @@
       <c r="J4">
         <v>1639.83</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="16">
         <v>0</v>
       </c>
       <c r="L4" t="s">
@@ -2349,7 +2525,7 @@
       <c r="M4">
         <v>183.71</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="16">
         <v>0</v>
       </c>
       <c r="O4" t="s">
@@ -2358,14 +2534,14 @@
       <c r="P4">
         <v>342</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="16">
         <v>0</v>
       </c>
       <c r="R4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2420,14 +2596,14 @@
       <c r="AB5">
         <v>189.95</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="16">
         <v>0</v>
       </c>
       <c r="AD5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2482,7 +2658,7 @@
       <c r="S6">
         <v>283.64999999999998</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="16">
         <v>0</v>
       </c>
       <c r="U6">
@@ -2491,7 +2667,7 @@
       <c r="V6">
         <v>29.87</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="16">
         <v>0</v>
       </c>
       <c r="X6">
@@ -2507,7 +2683,7 @@
         <v>1.0711999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2587,7 +2763,7 @@
         <v>0.93359999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2670,7 +2846,7 @@
         <v>1.0419</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -2750,7 +2926,7 @@
         <v>1.0991</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2830,7 +3006,7 @@
         <v>1.099</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2903,7 +3079,7 @@
       <c r="Y11">
         <v>1150</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="16">
         <v>0</v>
       </c>
       <c r="AA11">
@@ -2919,7 +3095,7 @@
         <v>1.177</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -3008,7 +3184,7 @@
         <v>1.2808999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3097,7 +3273,7 @@
         <v>1.4072</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -3186,7 +3362,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3277,23 +3453,32 @@
       <c r="AE15">
         <v>53.12</v>
       </c>
+      <c r="AF15" s="16">
+        <v>0</v>
+      </c>
       <c r="AG15">
         <v>1</v>
       </c>
       <c r="AH15">
         <v>61.56</v>
       </c>
+      <c r="AI15" s="16">
+        <v>0</v>
+      </c>
       <c r="AJ15">
         <v>1</v>
       </c>
       <c r="AK15">
         <v>99.3</v>
       </c>
+      <c r="AL15" s="16">
+        <v>0</v>
+      </c>
       <c r="AM15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -3409,7 +3594,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>61</v>
       </c>
@@ -3524,11 +3709,14 @@
       <c r="AN18">
         <v>84.59</v>
       </c>
+      <c r="AO18" s="16">
+        <v>0</v>
+      </c>
       <c r="AP18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>62</v>
       </c>
@@ -3653,42 +3841,168 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1433.52</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.2768999999999999</v>
+      </c>
+      <c r="G20">
+        <v>225.09</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="I20">
+        <v>1.5792999999999999</v>
+      </c>
+      <c r="J20">
+        <v>2442.37</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="L20">
+        <v>1.4896</v>
+      </c>
+      <c r="M20">
+        <v>207.39</v>
+      </c>
+      <c r="N20" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="O20">
+        <v>1.1285000000000001</v>
+      </c>
+      <c r="P20">
+        <v>410.4</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>-1.5800000000000002E-2</v>
+      </c>
+      <c r="R20">
+        <v>1.2612000000000001</v>
+      </c>
+      <c r="S20">
+        <v>382.9</v>
+      </c>
+      <c r="T20" s="2">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="U20">
+        <v>1.3468</v>
+      </c>
+      <c r="V20">
+        <v>54.33</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0.2253</v>
+      </c>
+      <c r="X20">
+        <v>1.8186</v>
+      </c>
+      <c r="Y20">
+        <v>1366.6</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AA20">
+        <v>1.1882999999999999</v>
+      </c>
+      <c r="AB20">
+        <v>317.94</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="AD20">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="AE20">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>-9.5299999999999996E-2</v>
+      </c>
+      <c r="AG20">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="AH20">
+        <v>43.78</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="AJ20">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="AK20">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>0.4133</v>
+      </c>
+      <c r="AM20">
+        <v>1.4772000000000001</v>
+      </c>
+      <c r="AN20">
+        <v>88.18</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>-2.3699999999999999E-2</v>
+      </c>
+      <c r="AP20">
+        <v>1.0425</v>
+      </c>
+      <c r="AR20">
+        <v>45.58</v>
+      </c>
+      <c r="AS20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>70</v>
       </c>
@@ -3697,6 +4011,7 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/月末作业投资股票数据.xlsx
+++ b/月末作业投资股票数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dataScoks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5DA98A-0812-4611-9619-A55AB40013A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892AAAC-4351-4EC0-8108-F6A3F8878493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2410" yWindow="840" windowWidth="16470" windowHeight="9360" tabRatio="418" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="418" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -512,6 +512,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -816,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2353,6 +2355,90 @@
       <c r="B21" t="s">
         <v>64</v>
       </c>
+      <c r="C21">
+        <v>3053.24</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E21">
+        <v>25595.8</v>
+      </c>
+      <c r="F21" s="17">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="G21">
+        <v>9874.15</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="J21">
+        <v>1397.17</v>
+      </c>
+      <c r="K21" s="2">
+        <v>-2.5399999999999999E-2</v>
+      </c>
+      <c r="L21">
+        <v>1394.97</v>
+      </c>
+      <c r="M21" s="2">
+        <v>-2.3800000000000002E-2</v>
+      </c>
+      <c r="N21">
+        <v>215.02</v>
+      </c>
+      <c r="O21" s="2">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="P21">
+        <v>121.29</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.13830000000000001</v>
+      </c>
+      <c r="R21">
+        <v>4526.54</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.1431</v>
+      </c>
+      <c r="T21">
+        <v>1009.35</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="V21">
+        <v>498.6</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="X21">
+        <v>71.8</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>0.25069999999999998</v>
+      </c>
+      <c r="Z21">
+        <v>220.64</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="AB21">
+        <v>2680.38</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="AD21">
+        <v>361.78</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0.13789999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -2395,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF10" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3975,6 +4061,132 @@
     <row r="21" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>64</v>
+      </c>
+      <c r="D21">
+        <v>1397.17</v>
+      </c>
+      <c r="E21" s="6">
+        <v>-3.2099999999999997E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.2359</v>
+      </c>
+      <c r="G21">
+        <v>220.64</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.548</v>
+      </c>
+      <c r="J21">
+        <v>2680.38</v>
+      </c>
+      <c r="K21" s="2">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="L21">
+        <v>1.6348</v>
+      </c>
+      <c r="M21">
+        <v>215.02</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.17</v>
+      </c>
+      <c r="P21">
+        <v>498.6</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="R21">
+        <v>1.5322</v>
+      </c>
+      <c r="S21">
+        <v>432.64</v>
+      </c>
+      <c r="T21" s="18">
+        <v>0.13</v>
+      </c>
+      <c r="U21">
+        <v>1.5219</v>
+      </c>
+      <c r="V21">
+        <v>59.58</v>
+      </c>
+      <c r="W21" s="2">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="X21">
+        <v>1.9943</v>
+      </c>
+      <c r="Y21">
+        <v>1462.88</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="AA21">
+        <v>1.2721</v>
+      </c>
+      <c r="AB21">
+        <v>361.78</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="AD21">
+        <v>1.9048</v>
+      </c>
+      <c r="AE21">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AG21">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="AH21">
+        <v>43.79</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="AK21">
+        <v>171.9</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>0.17180000000000001</v>
+      </c>
+      <c r="AM21">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="AN21">
+        <v>93.81</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="AP21">
+        <v>1.109</v>
+      </c>
+      <c r="AR21">
+        <v>54.7</v>
+      </c>
+      <c r="AS21" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="AT21">
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="2:46" x14ac:dyDescent="0.25">
@@ -4019,7 +4231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/月末作业投资股票数据.xlsx
+++ b/月末作业投资股票数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\dataScoks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892AAAC-4351-4EC0-8108-F6A3F8878493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A20BE2-3316-49E6-A34A-4DA601464B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="418" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15525" yWindow="14475" windowWidth="15465" windowHeight="14040" tabRatio="418" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2444,6 +2444,90 @@
       <c r="B22" t="s">
         <v>65</v>
       </c>
+      <c r="C22">
+        <v>3239.1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="E22">
+        <v>26149.360000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="G22">
+        <v>10629.74</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="J22">
+        <v>1468.62</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5.11E-2</v>
+      </c>
+      <c r="L22">
+        <v>1467.83</v>
+      </c>
+      <c r="M22" s="2">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="N22">
+        <v>250.26</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.16389999999999999</v>
+      </c>
+      <c r="P22">
+        <v>118.51</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>-2.29E-2</v>
+      </c>
+      <c r="R22">
+        <v>5018.9399999999996</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="T22">
+        <v>1462.68</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.4491</v>
+      </c>
+      <c r="V22">
+        <v>534</v>
+      </c>
+      <c r="W22" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="X22">
+        <v>85.39</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0.1893</v>
+      </c>
+      <c r="Z22">
+        <v>253.74</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AB22">
+        <v>3178.45</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="AD22">
+        <v>410.41</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0.13439999999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -2481,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AP22" sqref="AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4192,6 +4276,129 @@
     <row r="22" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>65</v>
+      </c>
+      <c r="D22">
+        <v>1472.85</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.3028999999999999</v>
+      </c>
+      <c r="G22">
+        <v>254.19</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="I22">
+        <v>1.7835000000000001</v>
+      </c>
+      <c r="J22">
+        <v>3200</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="L22">
+        <v>1.9518</v>
+      </c>
+      <c r="M22">
+        <v>250.17</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="O22">
+        <v>1.3613</v>
+      </c>
+      <c r="P22">
+        <v>534</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="R22">
+        <v>1.641</v>
+      </c>
+      <c r="S22">
+        <v>458.9</v>
+      </c>
+      <c r="T22" s="2">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="U22">
+        <v>1.6143000000000001</v>
+      </c>
+      <c r="V22">
+        <v>63.17</v>
+      </c>
+      <c r="W22" s="2">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="X22">
+        <v>2.1145999999999998</v>
+      </c>
+      <c r="Y22">
+        <v>1678.18</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0.1472</v>
+      </c>
+      <c r="AA22">
+        <v>1.4594</v>
+      </c>
+      <c r="AB22">
+        <v>410.5</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="AD22">
+        <v>2.1614</v>
+      </c>
+      <c r="AE22">
+        <v>40.89</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AG22">
+        <v>0.76970000000000005</v>
+      </c>
+      <c r="AH22">
+        <v>41.34</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AJ22">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="AK22">
+        <v>191.9</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>0.1163</v>
+      </c>
+      <c r="AM22">
+        <v>1.9322999999999999</v>
+      </c>
+      <c r="AN22">
+        <v>109.58</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0.1681</v>
+      </c>
+      <c r="AP22">
+        <v>1.2954000000000001</v>
+      </c>
+      <c r="AR22">
+        <v>70.92</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>0.29649999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.25">
